--- a/final/conditions.xlsx
+++ b/final/conditions.xlsx
@@ -12,27 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>condition</t>
-  </si>
-  <si>
-    <t>char_1</t>
-  </si>
-  <si>
-    <t>char_2</t>
   </si>
   <si>
     <t>group_name</t>
   </si>
   <si>
     <t>group</t>
-  </si>
-  <si>
-    <t>char_color_1</t>
-  </si>
-  <si>
-    <t>char_color_2</t>
   </si>
   <si>
     <t>color_1</t>
@@ -44,16 +32,10 @@
     <t>agency_level</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Explicit_R</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>explicit</t>
-  </si>
-  <si>
-    <t>yellow</t>
+    <t>green</t>
   </si>
   <si>
     <t>red</t>
@@ -62,55 +44,40 @@
     <t>high</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Implicit_R</t>
   </si>
   <si>
-    <t>implicit</t>
+    <t>purple</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Explicit_Free</t>
   </si>
   <si>
-    <t>free</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>orange</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>green</t>
+    <t>Explicit_L</t>
   </si>
   <si>
-    <t>low</t>
+    <t>brown</t>
   </si>
   <si>
-    <t>F</t>
+    <t>Implicit_L</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -120,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -136,14 +103,8 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,12 +114,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -229,19 +184,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -264,7 +219,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1359,23 +1313,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.4" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.4219" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4219" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4219" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4219" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4219" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4219" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.4219" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
@@ -1397,49 +1347,25 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>8</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
@@ -1449,29 +1375,17 @@
       <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>16</v>
+      <c r="C3" s="5">
+        <v>2</v>
       </c>
       <c r="D3" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
@@ -1479,31 +1393,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="F4" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
@@ -1511,415 +1413,1499 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
       </c>
       <c r="D5" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>19</v>
       </c>
       <c r="F6" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
       </c>
       <c r="D7" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
+      <c r="E7" t="s" s="6">
+        <v>16</v>
       </c>
       <c r="F7" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E8" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="F8" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
+      <c r="E9" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="F9" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
       </c>
       <c r="D10" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="F10" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s" s="6">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
       </c>
       <c r="D11" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>7</v>
       </c>
       <c r="F11" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>21</v>
       </c>
       <c r="F12" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
       </c>
       <c r="D13" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>17</v>
       </c>
       <c r="F13" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="D14" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
+      <c r="E14" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="F14" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="6">
-        <v>16</v>
+      <c r="C15" s="5">
+        <v>2</v>
       </c>
       <c r="D15" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="E15" t="s" s="6">
+        <v>12</v>
       </c>
       <c r="F15" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
       </c>
       <c r="D16" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="6">
+        <v>8</v>
       </c>
       <c r="F16" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="6">
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="6">
+      <c r="E26" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F27" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="D32" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="G17" t="s" s="6">
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="H17" t="s" s="6">
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C37" s="5">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="I17" t="s" s="6">
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C43" s="5">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="J17" t="s" s="6">
-        <v>23</v>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C55" s="5">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C60" s="5">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C61" s="5">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C65" s="5">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C66" s="5">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C67" s="5">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C71" s="5">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C73" s="5">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C77" s="5">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C79" s="5">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/final/conditions.xlsx
+++ b/final/conditions.xlsx
@@ -50,7 +50,7 @@
     <t>purple</t>
   </si>
   <si>
-    <t>blue</t>
+    <t>mediumblue</t>
   </si>
   <si>
     <t>Explicit_Free</t>
@@ -104,7 +104,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -187,16 +193,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -219,6 +225,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>

--- a/final/conditions.xlsx
+++ b/final/conditions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>condition</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Implicit_R</t>
   </si>
   <si>
-    <t>purple</t>
+    <t>darkviolet</t>
   </si>
   <si>
     <t>mediumblue</t>
@@ -62,7 +62,7 @@
     <t>Control</t>
   </si>
   <si>
-    <t>orange</t>
+    <t>magenta</t>
   </si>
   <si>
     <t>white</t>
@@ -71,13 +71,16 @@
     <t>Explicit_L</t>
   </si>
   <si>
-    <t>brown</t>
+    <t>saddlebrown</t>
   </si>
   <si>
     <t>Implicit_L</t>
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>brown</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,13 +180,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -203,6 +236,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1464,10 @@
       <c r="B5" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="8">
         <v>16</v>
       </c>
       <c r="E5" t="s" s="6">
@@ -1445,10 +1487,10 @@
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="6">
+      <c r="D6" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="8">
         <v>19</v>
       </c>
       <c r="F6" t="s" s="6">
@@ -1465,10 +1507,10 @@
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" t="s" s="6">
+      <c r="D7" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="6">
+      <c r="E7" t="s" s="8">
         <v>16</v>
       </c>
       <c r="F7" t="s" s="6">
@@ -1502,10 +1544,10 @@
       <c r="B9" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="6">
+      <c r="D9" t="s" s="8">
         <v>19</v>
       </c>
       <c r="E9" t="s" s="6">
@@ -1662,10 +1704,10 @@
       <c r="B17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" t="s" s="6">
+      <c r="D17" t="s" s="8">
         <v>19</v>
       </c>
       <c r="E17" t="s" s="6">
@@ -1825,10 +1867,10 @@
       <c r="C25" s="5">
         <v>6</v>
       </c>
-      <c r="D25" t="s" s="6">
+      <c r="D25" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="6">
+      <c r="E25" t="s" s="8">
         <v>19</v>
       </c>
       <c r="F25" t="s" s="6">
@@ -1862,10 +1904,10 @@
       <c r="B27" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" t="s" s="6">
+      <c r="D27" t="s" s="8">
         <v>19</v>
       </c>
       <c r="E27" t="s" s="6">
@@ -2029,7 +2071,7 @@
         <v>21</v>
       </c>
       <c r="E35" t="s" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s" s="6">
         <v>9</v>
@@ -2106,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>12</v>
@@ -2169,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s" s="6">
         <v>9</v>
@@ -2266,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s" s="6">
         <v>21</v>
@@ -2462,10 +2504,10 @@
       <c r="B57" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="7">
         <v>2</v>
       </c>
-      <c r="D57" t="s" s="6">
+      <c r="D57" t="s" s="8">
         <v>19</v>
       </c>
       <c r="E57" t="s" s="6">
@@ -2745,10 +2787,10 @@
       <c r="C71" s="5">
         <v>4</v>
       </c>
-      <c r="D71" t="s" s="6">
+      <c r="D71" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="E71" t="s" s="6">
+      <c r="E71" t="s" s="8">
         <v>19</v>
       </c>
       <c r="F71" t="s" s="6">
@@ -2822,10 +2864,10 @@
       <c r="B75" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="7">
         <v>2</v>
       </c>
-      <c r="D75" t="s" s="6">
+      <c r="D75" t="s" s="8">
         <v>19</v>
       </c>
       <c r="E75" t="s" s="6">
@@ -2905,10 +2947,10 @@
       <c r="C79" s="5">
         <v>6</v>
       </c>
-      <c r="D79" t="s" s="6">
+      <c r="D79" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="6">
+      <c r="E79" t="s" s="8">
         <v>19</v>
       </c>
       <c r="F79" t="s" s="6">

--- a/final/conditions.xlsx
+++ b/final/conditions.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="23">
   <si>
     <t>condition</t>
   </si>
@@ -87,22 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -212,39 +201,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -255,26 +244,77 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -400,7 +440,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -409,7 +449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -418,7 +458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -492,7 +532,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -500,7 +540,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -519,7 +559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -549,7 +589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -601,7 +641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -627,7 +667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,7 +745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,9 +810,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -787,7 +833,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -795,7 +841,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,7 +860,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +886,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +912,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1107,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1077,7 +1129,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1096,7 +1148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,1619 +1399,1622 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:IV79"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.4" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.4219" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4219" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4219" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.4219" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4219" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.4219" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.4219" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="20.65" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
+    <row r="2" spans="1:6" ht="20.65" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.45" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.45" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s" s="6">
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
+    <row r="5" spans="1:6" ht="20.45" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="8">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="8">
+      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="6">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s" s="6">
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="8">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s" s="6">
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="6">
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s" s="6">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="6">
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
-      <c r="D13" t="s" s="6">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="6">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" t="s" s="6">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s" s="6">
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" t="s" s="6">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s" s="6">
+      <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" t="s" s="8">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="6">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s" s="6">
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F18" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="5">
         <v>6</v>
       </c>
-      <c r="D19" t="s" s="6">
+      <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="6">
+      <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" t="s" s="6">
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" t="s" s="6">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s" s="6">
+      <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" t="s" s="6">
+      <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E23" t="s" s="6">
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s" s="6">
+      <c r="F23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="D24" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s" s="6">
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" t="s" s="6">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="5">
         <v>6</v>
       </c>
-      <c r="D25" t="s" s="9">
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="8">
+      <c r="E25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F25" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" t="s" s="6">
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" t="s" s="6">
+      <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" t="s" s="8">
+      <c r="D27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="6">
+      <c r="E27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" t="s" s="6">
+      <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" t="s" s="6">
+      <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
-      <c r="D29" t="s" s="6">
+      <c r="D29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s" s="6">
+      <c r="E29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F29" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" t="s" s="6">
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s" s="6">
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="B31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
-      <c r="D31" t="s" s="6">
+      <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="6">
+      <c r="E31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="B32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="D32" t="s" s="6">
+      <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E32" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1">
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" t="s" s="6">
+      <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
       </c>
-      <c r="D33" t="s" s="6">
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E33" t="s" s="6">
+      <c r="E33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" t="s" s="6">
+      <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="5">
         <v>3</v>
       </c>
-      <c r="D34" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s" s="6">
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" t="s" s="6">
+      <c r="B35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="5">
         <v>4</v>
       </c>
-      <c r="D35" t="s" s="6">
+      <c r="D35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="s" s="6">
+      <c r="E35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" t="s" s="6">
+      <c r="B36" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="D36" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s" s="6">
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" t="s" s="6">
+      <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="5">
         <v>6</v>
       </c>
-      <c r="D37" t="s" s="6">
+      <c r="D37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="6">
+      <c r="E37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" t="s" s="6">
+      <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" t="s" s="6">
+      <c r="D38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E38" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1">
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" t="s" s="6">
+      <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
       </c>
-      <c r="D39" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s" s="6">
+      <c r="D39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
+      <c r="F39" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" t="s" s="6">
+      <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="5">
         <v>3</v>
       </c>
-      <c r="D40" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
+      <c r="D40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" t="s" s="6">
+      <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="5">
         <v>4</v>
       </c>
-      <c r="D41" t="s" s="6">
+      <c r="D41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E41" t="s" s="6">
+      <c r="E41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F41" t="s" s="6">
+      <c r="F41" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" t="s" s="6">
+      <c r="B42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
-      <c r="D42" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
+      <c r="D42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" t="s" s="6">
+      <c r="B43" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="5">
         <v>6</v>
       </c>
-      <c r="D43" t="s" s="6">
+      <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="6">
+      <c r="E43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F43" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
+      <c r="F43" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" t="s" s="6">
+      <c r="B44" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" t="s" s="6">
+      <c r="D44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E44" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" t="s" s="6">
+      <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="5">
         <v>2</v>
       </c>
-      <c r="D45" t="s" s="6">
+      <c r="D45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E45" t="s" s="6">
+      <c r="E45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
+      <c r="F45" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" t="s" s="6">
+      <c r="B46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="D46" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
+      <c r="D46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" t="s" s="6">
+      <c r="B47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="5">
         <v>4</v>
       </c>
-      <c r="D47" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s" s="6">
+      <c r="D47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F47" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1">
+      <c r="F47" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" t="s" s="6">
+      <c r="B48" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="5">
         <v>5</v>
       </c>
-      <c r="D48" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s" s="6">
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F48" t="s" s="6">
+      <c r="F48" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" t="s" s="6">
+      <c r="B49" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="5">
         <v>6</v>
       </c>
-      <c r="D49" t="s" s="6">
+      <c r="D49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="6">
+      <c r="E49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F49" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1">
+      <c r="F49" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" t="s" s="6">
+      <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" t="s" s="6">
+      <c r="D50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E50" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" t="s" s="6">
+      <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="5">
         <v>2</v>
       </c>
-      <c r="D51" t="s" s="6">
+      <c r="D51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E51" t="s" s="6">
+      <c r="E51" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" t="s" s="6">
+      <c r="B52" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
       </c>
-      <c r="D52" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1">
+      <c r="D52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" t="s" s="6">
+      <c r="B53" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="5">
         <v>4</v>
       </c>
-      <c r="D53" t="s" s="6">
+      <c r="D53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E53" t="s" s="6">
+      <c r="E53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F53" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1">
+      <c r="F53" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" t="s" s="6">
+      <c r="B54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="5">
         <v>5</v>
       </c>
-      <c r="D54" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s" s="6">
+      <c r="D54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F54" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
+      <c r="F54" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" t="s" s="6">
+      <c r="B55" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="5">
         <v>6</v>
       </c>
-      <c r="D55" t="s" s="6">
+      <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="6">
+      <c r="E55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" ht="15" customHeight="1">
+      <c r="F55" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" t="s" s="6">
+      <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
-      <c r="D56" t="s" s="6">
+      <c r="D56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E56" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1">
+      <c r="E56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" t="s" s="6">
+      <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="7">
         <v>2</v>
       </c>
-      <c r="D57" t="s" s="8">
+      <c r="D57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="6">
+      <c r="E57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1">
+      <c r="F57" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" t="s" s="6">
+      <c r="B58" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="5">
         <v>3</v>
       </c>
-      <c r="D58" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1">
+      <c r="D58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" t="s" s="6">
+      <c r="B59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="5">
         <v>4</v>
       </c>
-      <c r="D59" t="s" s="6">
+      <c r="D59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E59" t="s" s="6">
+      <c r="E59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F59" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1">
+      <c r="F59" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" t="s" s="6">
+      <c r="B60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="5">
         <v>5</v>
       </c>
-      <c r="D60" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s" s="6">
+      <c r="D60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F60" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1">
+      <c r="F60" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" t="s" s="6">
+      <c r="B61" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C61" s="5">
         <v>6</v>
       </c>
-      <c r="D61" t="s" s="6">
+      <c r="D61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="6">
+      <c r="E61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F61" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1">
+      <c r="F61" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" t="s" s="6">
+      <c r="B62" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="D62" t="s" s="6">
+      <c r="D62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E62" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1">
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" t="s" s="6">
+      <c r="B63" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
       </c>
-      <c r="D63" t="s" s="6">
+      <c r="D63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E63" t="s" s="6">
+      <c r="E63" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" ht="15" customHeight="1">
+      <c r="F63" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" t="s" s="6">
+      <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="5">
         <v>3</v>
       </c>
-      <c r="D64" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1">
+      <c r="D64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" t="s" s="6">
+      <c r="B65" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="5">
         <v>4</v>
       </c>
-      <c r="D65" t="s" s="6">
+      <c r="D65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E65" t="s" s="6">
+      <c r="E65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F65" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1">
+      <c r="F65" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" t="s" s="6">
+      <c r="B66" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="5">
         <v>5</v>
       </c>
-      <c r="D66" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s" s="6">
+      <c r="D66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F66" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1">
+      <c r="F66" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" t="s" s="6">
+      <c r="B67" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="5">
         <v>6</v>
       </c>
-      <c r="D67" t="s" s="6">
+      <c r="D67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="6">
+      <c r="E67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F67" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1">
+      <c r="F67" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" t="s" s="6">
+      <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
       </c>
-      <c r="D68" t="s" s="6">
+      <c r="D68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E68" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1">
+      <c r="E68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" t="s" s="6">
+      <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="5">
         <v>2</v>
       </c>
-      <c r="D69" t="s" s="6">
+      <c r="D69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E69" t="s" s="6">
+      <c r="E69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1">
+      <c r="F69" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" t="s" s="6">
+      <c r="B70" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="5">
         <v>3</v>
       </c>
-      <c r="D70" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1">
+      <c r="D70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" t="s" s="6">
+      <c r="B71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="5">
         <v>4</v>
       </c>
-      <c r="D71" t="s" s="9">
+      <c r="D71" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E71" t="s" s="8">
+      <c r="E71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F71" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1">
+      <c r="F71" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" t="s" s="6">
+      <c r="B72" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="5">
         <v>5</v>
       </c>
-      <c r="D72" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s" s="6">
+      <c r="D72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F72" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1">
+      <c r="F72" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" t="s" s="6">
+      <c r="B73" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C73" s="5">
         <v>6</v>
       </c>
-      <c r="D73" t="s" s="6">
+      <c r="D73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="6">
+      <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F73" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1">
+      <c r="F73" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" t="s" s="6">
+      <c r="B74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
       </c>
-      <c r="D74" t="s" s="6">
+      <c r="D74" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1">
+      <c r="E74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" t="s" s="6">
+      <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="7">
         <v>2</v>
       </c>
-      <c r="D75" t="s" s="8">
+      <c r="D75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="6">
+      <c r="E75" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F75" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1">
+      <c r="F75" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" t="s" s="6">
+      <c r="B76" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="5">
         <v>3</v>
       </c>
-      <c r="D76" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="F76" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1">
+      <c r="D76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" t="s" s="6">
+      <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="5">
         <v>4</v>
       </c>
-      <c r="D77" t="s" s="6">
+      <c r="D77" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E77" t="s" s="6">
+      <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F77" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1">
+      <c r="F77" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" t="s" s="6">
+      <c r="B78" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="5">
         <v>5</v>
       </c>
-      <c r="D78" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s" s="6">
+      <c r="D78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F78" t="s" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1">
+      <c r="F78" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1">
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" t="s" s="6">
+      <c r="B79" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="5">
         <v>6</v>
       </c>
-      <c r="D79" t="s" s="9">
+      <c r="D79" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="8">
+      <c r="E79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F79" t="s" s="6">
+      <c r="F79" s="6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
